--- a/all_tech_version1.5_IIACFormat.xlsx
+++ b/all_tech_version1.5_IIACFormat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennagreene/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DABAA8C-4AE8-0A4D-BA2A-A8C000343729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F7EFD-7E1E-E448-B791-322FC817889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{EDAD0F10-6336-DC4E-B092-A3D0057406C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{EDAD0F10-6336-DC4E-B092-A3D0057406C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$229</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="749">
   <si>
     <t>Technology Name</t>
   </si>
@@ -512,9 +512,6 @@
     <t>ROTAC Vaccine</t>
   </si>
   <si>
-    <t>RTGS adoption</t>
-  </si>
-  <si>
     <t>Running water</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>Energy End-Use</t>
   </si>
   <si>
-    <t>Annual production</t>
-  </si>
-  <si>
     <t>Petajoules of biofuel production (combined across biofuel type)</t>
   </si>
   <si>
@@ -815,9 +809,6 @@
     <t>Share of Population|Smartphone Usage</t>
   </si>
   <si>
-    <t>Share of Population|RTGS</t>
-  </si>
-  <si>
     <t>Share of Market|Radial Tires</t>
   </si>
   <si>
@@ -833,9 +824,6 @@
     <t>Share of Population|Ebook Reader</t>
   </si>
   <si>
-    <t>Share of Population|Disc Brakes</t>
-  </si>
-  <si>
     <t>Share of Market|Automatic Transmission</t>
   </si>
   <si>
@@ -914,9 +902,6 @@
     <t>Cumulative electricity capacity of compact flourescent lightbulbs sold</t>
   </si>
   <si>
-    <t>Total electricity generating capacity of coal power plants</t>
-  </si>
-  <si>
     <t>Computing Capacity|Computing Growth</t>
   </si>
   <si>
@@ -1067,9 +1052,6 @@
     <t>Cumulative Total Capacity|Jet Aircrafts</t>
   </si>
   <si>
-    <t>Total energy capacity of passenger jet aircrafts</t>
-  </si>
-  <si>
     <t>Cumulative Total Capacity|Laundry Dryers</t>
   </si>
   <si>
@@ -1178,12 +1160,6 @@
     <t>Tonnes</t>
   </si>
   <si>
-    <t>Cumulative installed electricity generating capacity of nuclear energy systems</t>
-  </si>
-  <si>
-    <t>Cumulative Number of intact nuclear weapons in stockpiles</t>
-  </si>
-  <si>
     <t>Number of weapons</t>
   </si>
   <si>
@@ -1259,9 +1235,6 @@
     <t>Annual nutrient potash K20 for agricultural use</t>
   </si>
   <si>
-    <t>Total installed capacity of wet flue gas desulfurization systems (scrubbers)</t>
-  </si>
-  <si>
     <t>Gwe</t>
   </si>
   <si>
@@ -1385,33 +1358,18 @@
     <t>Number of cellphone users</t>
   </si>
   <si>
-    <t>Cumulative Number of Units|Telephones</t>
-  </si>
-  <si>
     <t>Number of landline telephones in operation</t>
   </si>
   <si>
     <t>Number of items mailed/receieved</t>
   </si>
   <si>
-    <t>Cumulative Number of Units|Passenger Cars</t>
-  </si>
-  <si>
     <t>Number of units</t>
   </si>
   <si>
-    <t>Cumulative Number of Units|Televisions</t>
-  </si>
-  <si>
     <t>Number of televisions</t>
   </si>
   <si>
-    <t>Cumulative Number of Units|Radios</t>
-  </si>
-  <si>
-    <t>Cumulative Number of Units|Telegraph Traffic</t>
-  </si>
-  <si>
     <t>Number of telegraphs sent annually</t>
   </si>
   <si>
@@ -1529,9 +1487,6 @@
     <t>Installed Capacity|Carbon Capture &amp; Sequestration</t>
   </si>
   <si>
-    <t>Installed Capacity|Electricity|Coal</t>
-  </si>
-  <si>
     <t>Insatlled Capacity|Electricity|Concentrated Solar</t>
   </si>
   <si>
@@ -1544,15 +1499,9 @@
     <t>Installed Capacity|Electricity|Natural Gas</t>
   </si>
   <si>
-    <t>Installed Capacity|Electricity|Nuclear</t>
-  </si>
-  <si>
     <t>Installed Capacity|Electricity|Onshore Wind</t>
   </si>
   <si>
-    <t>Installed Capacity|Wet Flue Gas Desulfurization Systems</t>
-  </si>
-  <si>
     <t>Installed Capacity|Stationary Steam Engines</t>
   </si>
   <si>
@@ -1835,9 +1784,6 @@
     <t>Net Total Capacity|Fluid Catalytic Cracking Refineries</t>
   </si>
   <si>
-    <t xml:space="preserve"> Coal Power</t>
-  </si>
-  <si>
     <t>Annual Production|Shotgun Sanger DNA Sequencing</t>
   </si>
   <si>
@@ -1871,9 +1817,6 @@
     <t>Synthetic Ammonia Synthesis</t>
   </si>
   <si>
-    <t>Annual Prodution|Synthetic Ammonia Synthesis</t>
-  </si>
-  <si>
     <t>Annual production of synthetic ammonia through ammonia synthesis (includes nitrogen fertilizer and synthetic ammonia production)</t>
   </si>
   <si>
@@ -2204,18 +2147,6 @@
     <t>Cumulative Number of Units|Oil Pipelines</t>
   </si>
   <si>
-    <t>Cumulative Number of Units|Postal Traffic</t>
-  </si>
-  <si>
-    <t>Cumulative Number of Units|Crop Harvester</t>
-  </si>
-  <si>
-    <t>Cumulative Number of Units|Nuclear Weapons</t>
-  </si>
-  <si>
-    <t>Cumulative Number of Units|Space Launches</t>
-  </si>
-  <si>
     <t>Installed Capacity|Solar Thermal Energy</t>
   </si>
   <si>
@@ -2280,6 +2211,81 @@
   </si>
   <si>
     <t>Share of Market|Microcomputers</t>
+  </si>
+  <si>
+    <t>Annual Production|Synthetic Ammonia Synthesis</t>
+  </si>
+  <si>
+    <t>Annual production of biofuels across types</t>
+  </si>
+  <si>
+    <t>Share of Market|Disc Brakes</t>
+  </si>
+  <si>
+    <t>Cumulative Total Capacity|Wet Flue Gas Desulfurization Systems</t>
+  </si>
+  <si>
+    <t>Cumulative installed capacity of wet flue gas desulfurization systems (scrubbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time Gross Settlement </t>
+  </si>
+  <si>
+    <t>Share of Market|Real-time Gross Settlement</t>
+  </si>
+  <si>
+    <t>Number of Units|Crop Harvester</t>
+  </si>
+  <si>
+    <t>Number of Units|Postal Traffic</t>
+  </si>
+  <si>
+    <t>Number of Units|Telegraph Traffic</t>
+  </si>
+  <si>
+    <t>Number of Units|Telephones</t>
+  </si>
+  <si>
+    <t>Number of Units|Radios</t>
+  </si>
+  <si>
+    <t>Number of Units|Space Launches</t>
+  </si>
+  <si>
+    <t>Number of Units|Televisions</t>
+  </si>
+  <si>
+    <t>Number of intact nuclear weapons in stockpiles</t>
+  </si>
+  <si>
+    <t>Number of Units|Nuclear Weapons</t>
+  </si>
+  <si>
+    <t>Annual Production|Coal</t>
+  </si>
+  <si>
+    <t>Total coal production</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>Annual Production|Electricity|Nuclear</t>
+  </si>
+  <si>
+    <t>Annual electricity production of nuclear energy systems</t>
+  </si>
+  <si>
+    <t>Number of Units|Passenger Cars</t>
+  </si>
+  <si>
+    <t>Total energy capacity of  jet aircrafts</t>
+  </si>
+  <si>
+    <t>Cumulative Total Capacity|Passenger Cars</t>
+  </si>
+  <si>
+    <t>Cumulative total energy capacity of passenger cars measured by the electricity equivalent of engine</t>
   </si>
 </sst>
 </file>
@@ -2322,11 +2328,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2641,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2661,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2678,16 +2682,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,16 +2699,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,16 +2733,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>725</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,16 +2750,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,16 +2784,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,16 +2801,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,16 +2818,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,16 +2835,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,16 +2852,16 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,16 +2869,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,16 +2886,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,16 +2903,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D15" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2916,16 +2920,16 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,33 +2937,33 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,16 +2971,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2984,16 +2988,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,16 +3005,16 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,16 +3022,16 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,16 +3039,16 @@
         <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,16 +3056,16 @@
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,16 +3073,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3086,16 +3090,16 @@
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3103,16 +3107,16 @@
         <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,16 +3124,16 @@
         <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,16 +3141,16 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,16 +3158,16 @@
         <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3171,16 +3175,16 @@
         <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,16 +3192,16 @@
         <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3205,16 +3209,16 @@
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="D33" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3222,33 +3226,33 @@
         <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3256,16 +3260,16 @@
         <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,16 +3277,16 @@
         <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,16 +3294,16 @@
         <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3307,16 +3311,16 @@
         <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,16 +3328,16 @@
         <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3341,16 +3345,16 @@
         <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,16 +3362,16 @@
         <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,16 +3379,16 @@
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3392,16 +3396,16 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,16 +3413,16 @@
         <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,16 +3430,16 @@
         <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,16 +3447,16 @@
         <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,16 +3464,16 @@
         <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,16 +3481,16 @@
         <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D49" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,16 +3498,16 @@
         <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3511,16 +3515,16 @@
         <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3528,16 +3532,16 @@
         <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3545,16 +3549,16 @@
         <v>126</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3562,16 +3566,16 @@
         <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3579,16 +3583,16 @@
         <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3596,16 +3600,16 @@
         <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,16 +3617,16 @@
         <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3630,16 +3634,16 @@
         <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,16 +3651,16 @@
         <v>136</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,16 +3668,16 @@
         <v>138</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,16 +3685,16 @@
         <v>140</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3698,16 +3702,16 @@
         <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,16 +3719,16 @@
         <v>142</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,16 +3736,16 @@
         <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3749,16 +3753,16 @@
         <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="C65" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D65" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,16 +3770,16 @@
         <v>152</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,322 +3787,322 @@
         <v>155</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>598</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="C84" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B85" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="C85" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D85" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4106,16 +4110,16 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="C86" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4123,33 +4127,33 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="C87" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B88" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="C88" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4157,67 +4161,67 @@
         <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C89" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D89" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C90" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="C91" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="C92" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,16 +4229,16 @@
         <v>34</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4242,16 +4246,16 @@
         <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4259,16 +4263,16 @@
         <v>83</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4276,16 +4280,16 @@
         <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,16 +4297,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4310,16 +4314,16 @@
         <v>144</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4327,33 +4331,33 @@
         <v>150</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C100" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4361,16 +4365,16 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4378,16 +4382,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4395,16 +4399,16 @@
         <v>26</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4412,33 +4416,33 @@
         <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,16 +4450,16 @@
         <v>38</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4463,16 +4467,16 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4480,16 +4484,16 @@
         <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4497,16 +4501,16 @@
         <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4514,16 +4518,16 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4531,16 +4535,16 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4548,33 +4552,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B113" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4582,16 +4586,16 @@
         <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>380</v>
+        <v>738</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4599,16 +4603,16 @@
         <v>120</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,982 +4620,982 @@
         <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>451</v>
+        <v>745</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>450</v>
+        <v>748</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>440</v>
+        <v>269</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>455</v>
+        <v>700</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" t="s">
-        <v>705</v>
+        <v>149</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>687</v>
+        <v>432</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>724</v>
+        <v>154</v>
+      </c>
+      <c r="B122" t="s">
+        <v>686</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>382</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B123" t="s">
-        <v>707</v>
+        <v>173</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>688</v>
+        <v>422</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B124" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>697</v>
+        <v>175</v>
+      </c>
+      <c r="B125" t="s">
+        <v>689</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>422</v>
+        <v>670</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>456</v>
+        <v>678</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>448</v>
+        <v>733</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>453</v>
+        <v>734</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B129" t="s">
-        <v>709</v>
+        <v>185</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>690</v>
+        <v>442</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>624</v>
+        <v>194</v>
+      </c>
+      <c r="B130" t="s">
+        <v>690</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>665</v>
+        <v>431</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B132" t="s">
-        <v>640</v>
+        <v>50</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B133" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>642</v>
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>622</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B142" s="1" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>474</v>
+        <v>644</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>315</v>
+        <v>646</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B146" t="s">
-        <v>628</v>
+        <v>50</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B147" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>630</v>
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>610</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>271</v>
+        <v>618</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>210</v>
+      <c r="A159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>206</v>
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
+        <v>530</v>
+      </c>
+      <c r="C160" t="s">
+        <v>531</v>
+      </c>
+      <c r="D160" t="s">
+        <v>269</v>
+      </c>
+      <c r="E160" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>305</v>
+        <v>676</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>551</v>
+        <v>47</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>552</v>
+        <v>300</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>553</v>
+        <v>301</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>63</v>
+        <v>534</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>320</v>
+        <v>535</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>321</v>
+        <v>536</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B166" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>344</v>
+        <v>746</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>510</v>
+        <v>363</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>511</v>
+        <v>364</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>512</v>
+        <v>269</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>273</v>
+        <v>495</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B172" t="s">
-        <v>409</v>
+        <v>176</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>497</v>
+        <v>194</v>
+      </c>
+      <c r="B173" t="s">
+        <v>400</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>210</v>
@@ -5599,206 +5603,206 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>498</v>
+        <v>740</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>493</v>
+        <v>741</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>351</v>
+        <v>479</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>577</v>
+        <v>484</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>578</v>
+        <v>345</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>692</v>
+        <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>509</v>
+        <v>743</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>388</v>
+        <v>744</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>273</v>
+        <v>742</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>210</v>
+      <c r="A183" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>171</v>
+        <v>674</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>470</v>
+        <v>375</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5806,455 +5810,455 @@
         <v>172</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>725</v>
+        <v>488</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>504</v>
+        <v>702</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B189" t="s">
-        <v>594</v>
+        <v>196</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E189" t="s">
-        <v>210</v>
+        <v>398</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B190" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E190" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>582</v>
+        <v>87</v>
       </c>
       <c r="B191" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B192" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E192" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>727</v>
+        <v>534</v>
+      </c>
+      <c r="B193" t="s">
+        <v>580</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>225</v>
+        <v>672</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>209</v>
+        <v>269</v>
+      </c>
+      <c r="E193" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>265</v>
+        <v>704</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>726</v>
+        <v>261</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>262</v>
+        <v>715</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>741</v>
+        <v>259</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B203" t="s">
-        <v>710</v>
+        <v>313</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>711</v>
+        <v>67</v>
+      </c>
+      <c r="B204" t="s">
+        <v>691</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C211" t="s">
-        <v>330</v>
+        <v>694</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>241</v>
+        <v>695</v>
+      </c>
+      <c r="C212" t="s">
+        <v>325</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>212</v>
@@ -6262,50 +6266,50 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>489</v>
+        <v>241</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>210</v>
@@ -6313,203 +6317,203 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>260</v>
+        <v>696</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>245</v>
+        <v>475</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>733</v>
+        <v>256</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>694</v>
+        <v>249</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>253</v>
+        <v>663</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>519</v>
+        <v>705</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>518</v>
+        <v>252</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>264</v>
+        <v>503</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>232</v>
+        <v>505</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>263</v>
+        <v>726</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>209</v>
@@ -6517,297 +6521,314 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>526</v>
+        <v>260</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>527</v>
+        <v>231</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>261</v>
+        <v>515</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>244</v>
+        <v>514</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>534</v>
+        <v>258</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>533</v>
+        <v>242</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>258</v>
+        <v>521</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>248</v>
+        <v>520</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>153</v>
+        <v>729</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>535</v>
+        <v>730</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>257</v>
+        <v>518</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>249</v>
+        <v>519</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>517</v>
+        <v>253</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E228" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E244">
-      <sortCondition ref="B1:B244"/>
+  <autoFilter ref="A1:E229" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E245">
+      <sortCondition ref="B1:B245"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all_tech_version1.5_IIACFormat.xlsx
+++ b/all_tech_version1.5_IIACFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennagreene/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F7EFD-7E1E-E448-B791-322FC817889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E8CF3-AC41-9341-9B98-8A6EDA6C06B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{EDAD0F10-6336-DC4E-B092-A3D0057406C8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$E$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="747">
   <si>
     <t>Technology Name</t>
   </si>
@@ -1644,12 +1644,6 @@
   </si>
   <si>
     <t>Fluid Catalytic Cracking Refineries</t>
-  </si>
-  <si>
-    <t>Cumulative Total Capacity|Fluid Catalytic Cracking Refineries</t>
-  </si>
-  <si>
-    <t>Total energy capacity of fluid catalytic cracking systems in oil refineries</t>
   </si>
   <si>
     <t>Annual production of gold</t>
@@ -2645,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2736,7 +2730,7 @@
         <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>206</v>
@@ -2784,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>262</v>
@@ -2852,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>277</v>
@@ -2886,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>281</v>
@@ -2920,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>283</v>
@@ -2934,33 +2928,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>568</v>
+        <v>738</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>528</v>
+        <v>739</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>529</v>
+        <v>263</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>529</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>284</v>
@@ -2968,13 +2962,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>225</v>
@@ -2985,13 +2979,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>225</v>
@@ -3002,101 +2996,101 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>532</v>
+        <v>293</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>476</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>477</v>
+        <v>296</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>208</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>302</v>
+        <v>476</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>303</v>
+        <v>477</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>478</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>305</v>
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>740</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>474</v>
@@ -3104,13 +3098,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>308</v>
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>305</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>201</v>
@@ -3121,16 +3115,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>474</v>
@@ -3138,101 +3132,101 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>537</v>
+        <v>309</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>569</v>
+        <v>311</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>538</v>
+        <v>312</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>529</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>391</v>
+        <v>535</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D33" t="s">
-        <v>563</v>
+        <v>391</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>208</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>324</v>
+        <v>538</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>526</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>474</v>
@@ -3240,50 +3234,50 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>448</v>
+        <v>560</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>225</v>
+        <v>655</v>
+      </c>
+      <c r="D35" t="s">
+        <v>561</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>284</v>
@@ -3291,33 +3285,33 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>570</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>541</v>
+        <v>340</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>284</v>
@@ -3325,47 +3319,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>599</v>
+        <v>342</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>344</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>346</v>
+        <v>568</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>347</v>
+        <v>539</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>201</v>
+        <v>529</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>351</v>
+        <v>597</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>201</v>
@@ -3376,13 +3370,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>201</v>
@@ -3393,101 +3387,101 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>208</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>571</v>
+        <v>358</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>459</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>369</v>
+        <v>569</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>559</v>
+        <v>367</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D49" t="s">
-        <v>544</v>
+        <v>368</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>474</v>
@@ -3495,81 +3489,81 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>572</v>
+        <v>369</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>377</v>
+        <v>557</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>379</v>
+        <v>556</v>
+      </c>
+      <c r="D51" t="s">
+        <v>542</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>213</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>381</v>
+        <v>570</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>201</v>
+        <v>372</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>201</v>
+        <v>379</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>474</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>201</v>
@@ -3580,30 +3574,30 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>573</v>
+        <v>383</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>201</v>
@@ -3614,30 +3608,30 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>389</v>
+        <v>571</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>372</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>201</v>
@@ -3648,13 +3642,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>201</v>
@@ -3665,64 +3659,64 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>574</v>
+        <v>393</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>212</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>602</v>
+        <v>395</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>557</v>
+        <v>397</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>225</v>
+        <v>372</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>225</v>
@@ -3733,81 +3727,81 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>347</v>
+        <v>555</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" t="s">
-        <v>575</v>
-      </c>
-      <c r="C65" t="s">
-        <v>555</v>
-      </c>
-      <c r="D65" t="s">
-        <v>529</v>
-      </c>
-      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>573</v>
+      </c>
+      <c r="C67" t="s">
+        <v>553</v>
+      </c>
+      <c r="D67" t="s">
+        <v>529</v>
+      </c>
+      <c r="E67" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>225</v>
@@ -3818,16 +3812,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>450</v>
+        <v>574</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>208</v>
@@ -3835,81 +3829,81 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>554</v>
+        <v>445</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>553</v>
+        <v>225</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>551</v>
+        <v>450</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>452</v>
+        <v>579</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>201</v>
@@ -3920,16 +3914,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>526</v>
+        <v>201</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>474</v>
@@ -3937,16 +3931,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>548</v>
+        <v>416</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>526</v>
+        <v>201</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>474</v>
@@ -3954,33 +3948,33 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>526</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>589</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>410</v>
+        <v>722</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>411</v>
+        <v>590</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>412</v>
+        <v>591</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>474</v>
@@ -3988,16 +3982,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>201</v>
+        <v>526</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>474</v>
@@ -4005,33 +3999,33 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>403</v>
+        <v>543</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>201</v>
+        <v>526</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>474</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>474</v>
@@ -4039,149 +4033,149 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>542</v>
+        <v>405</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>543</v>
+        <v>406</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>544</v>
+        <v>201</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>591</v>
+        <v>192</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>724</v>
+        <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>592</v>
+        <v>404</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>593</v>
+        <v>201</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" t="s">
-        <v>649</v>
-      </c>
-      <c r="C84" t="s">
-        <v>582</v>
-      </c>
-      <c r="D84" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" t="s">
-        <v>208</v>
+      <c r="A84" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>534</v>
-      </c>
-      <c r="B85" t="s">
-        <v>648</v>
-      </c>
-      <c r="C85" t="s">
-        <v>583</v>
-      </c>
-      <c r="D85" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" t="s">
-        <v>208</v>
+      <c r="A85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C86" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D86" t="s">
         <v>269</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>534</v>
       </c>
       <c r="B87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C87" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D87" t="s">
         <v>269</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>565</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C88" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D88" t="s">
         <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C89" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D89" t="s">
         <v>269</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>563</v>
       </c>
       <c r="B90" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C90" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D90" t="s">
         <v>269</v>
@@ -4192,84 +4186,84 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D91" t="s">
         <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C92" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D92" t="s">
         <v>269</v>
       </c>
       <c r="E92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>653</v>
+      </c>
+      <c r="C93" t="s">
+        <v>587</v>
+      </c>
+      <c r="D93" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>654</v>
+      </c>
+      <c r="C94" t="s">
+        <v>588</v>
+      </c>
+      <c r="D94" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>207</v>
@@ -4277,16 +4271,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>207</v>
@@ -4294,16 +4288,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>207</v>
@@ -4311,16 +4305,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>662</v>
+        <v>348</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>426</v>
+        <v>349</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>207</v>
@@ -4328,16 +4322,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>207</v>
@@ -4345,16 +4339,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C100" t="s">
-        <v>409</v>
+        <v>660</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>207</v>
@@ -4362,240 +4356,240 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>679</v>
+        <v>150</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>658</v>
+        <v>434</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>275</v>
+        <v>407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>409</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>437</v>
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>677</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>438</v>
+        <v>656</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" t="s">
-        <v>680</v>
+        <v>20</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>659</v>
+        <v>275</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B105" t="s">
-        <v>687</v>
+        <v>26</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>660</v>
+        <v>438</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>731</v>
+        <v>29</v>
+      </c>
+      <c r="B106" t="s">
+        <v>678</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>436</v>
+        <v>657</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="B107" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>321</v>
+        <v>659</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>664</v>
+        <v>321</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>431</v>
+        <v>322</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>365</v>
+        <v>664</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>667</v>
+        <v>365</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>739</v>
+        <v>563</v>
+      </c>
+      <c r="B114" t="s">
+        <v>683</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>738</v>
+        <v>665</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>374</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4603,7 +4597,7 @@
         <v>120</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>376</v>
@@ -4617,115 +4611,115 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>747</v>
+        <v>675</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>748</v>
+        <v>432</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>269</v>
+        <v>414</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>732</v>
+        <v>154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>684</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>440</v>
+        <v>666</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>700</v>
+        <v>174</v>
+      </c>
+      <c r="B119" t="s">
+        <v>686</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>428</v>
+        <v>667</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>735</v>
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>687</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>430</v>
+        <v>668</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>414</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B122" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>431</v>
@@ -4736,152 +4730,152 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>736</v>
+        <v>603</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>422</v>
+        <v>630</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>423</v>
+        <v>644</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>374</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" t="s">
-        <v>688</v>
+        <v>50</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>689</v>
+        <v>619</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>678</v>
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>620</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>413</v>
+        <v>633</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>414</v>
+        <v>644</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>733</v>
+        <v>621</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>443</v>
+        <v>634</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>734</v>
+        <v>622</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>439</v>
+        <v>635</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>442</v>
+        <v>636</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B130" t="s">
-        <v>690</v>
+        <v>169</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>211</v>
@@ -4889,16 +4883,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>211</v>
@@ -4906,16 +4900,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B133" t="s">
-        <v>621</v>
+        <v>114</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>211</v>
@@ -4923,16 +4917,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" t="s">
-        <v>622</v>
+        <v>64</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>211</v>
@@ -4940,16 +4934,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>211</v>
@@ -4957,16 +4951,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>211</v>
@@ -4974,16 +4968,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>638</v>
+        <v>460</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>211</v>
@@ -4991,16 +4985,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>211</v>
@@ -5008,16 +5002,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>627</v>
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>607</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>640</v>
+        <v>461</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>211</v>
@@ -5025,16 +5019,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>628</v>
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>608</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>641</v>
+        <v>462</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>211</v>
@@ -5042,16 +5036,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>645</v>
+        <v>465</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>211</v>
@@ -5059,16 +5053,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>642</v>
+        <v>466</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>211</v>
@@ -5076,16 +5070,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>643</v>
+        <v>467</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>211</v>
@@ -5093,16 +5087,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>644</v>
+        <v>469</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>211</v>
@@ -5110,13 +5104,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>310</v>
@@ -5127,13 +5121,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>310</v>
@@ -5144,13 +5138,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B147" t="s">
-        <v>609</v>
+        <v>114</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>310</v>
@@ -5161,13 +5155,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B148" t="s">
-        <v>610</v>
+        <v>64</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>310</v>
@@ -5178,13 +5172,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>310</v>
@@ -5195,13 +5189,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>310</v>
@@ -5212,149 +5206,149 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>613</v>
+        <v>267</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>467</v>
+        <v>268</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>211</v>
+        <v>29</v>
+      </c>
+      <c r="B152" t="s">
+        <v>530</v>
+      </c>
+      <c r="C152" t="s">
+        <v>531</v>
+      </c>
+      <c r="D152" t="s">
+        <v>269</v>
+      </c>
+      <c r="E152" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>470</v>
+        <v>286</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>601</v>
+        <v>300</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>473</v>
+        <v>301</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>617</v>
+        <v>315</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>463</v>
+        <v>316</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>619</v>
+        <v>336</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>468</v>
+        <v>744</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>618</v>
+        <v>337</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>464</v>
+        <v>338</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>269</v>
@@ -5365,64 +5359,64 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" t="s">
-        <v>530</v>
-      </c>
-      <c r="C160" t="s">
-        <v>531</v>
-      </c>
-      <c r="D160" t="s">
-        <v>269</v>
-      </c>
-      <c r="E160" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>286</v>
+        <v>746</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>676</v>
+        <v>444</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>297</v>
+        <v>429</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>269</v>
@@ -5433,101 +5427,101 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>534</v>
+        <v>176</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>535</v>
+        <v>417</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>536</v>
+        <v>418</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>315</v>
+        <v>194</v>
+      </c>
+      <c r="B165" t="s">
+        <v>400</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>336</v>
+        <v>725</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>269</v>
+        <v>398</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>337</v>
+        <v>482</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>363</v>
+        <v>481</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>494</v>
+        <v>270</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>495</v>
+        <v>269</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>208</v>
@@ -5535,81 +5529,81 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>417</v>
+        <v>558</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>418</v>
+        <v>559</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B173" t="s">
-        <v>400</v>
+        <v>109</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>35</v>
+        <v>671</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>269</v>
@@ -5620,13 +5614,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>24</v>
+        <v>672</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>269</v>
@@ -5637,13 +5631,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>269</v>
@@ -5654,16 +5648,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>740</v>
+        <v>488</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>741</v>
+        <v>429</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>208</v>
@@ -5671,13 +5665,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>269</v>
@@ -5688,13 +5682,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>269</v>
@@ -5705,325 +5699,325 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>560</v>
+        <v>29</v>
+      </c>
+      <c r="B180" t="s">
+        <v>575</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>561</v>
+        <v>657</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>485</v>
+        <v>87</v>
+      </c>
+      <c r="B181" t="s">
+        <v>576</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>457</v>
+        <v>662</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>208</v>
+      <c r="E181" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>743</v>
+        <v>563</v>
+      </c>
+      <c r="B182" t="s">
+        <v>577</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>744</v>
+        <v>665</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E182" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E182" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>492</v>
+        <v>534</v>
+      </c>
+      <c r="B183" t="s">
+        <v>578</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>380</v>
+        <v>670</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>674</v>
+        <v>38</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>486</v>
+        <v>729</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>489</v>
+        <v>737</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>456</v>
+        <v>736</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>488</v>
+        <v>743</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>487</v>
+        <v>733</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>728</v>
+        <v>422</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B190" t="s">
-        <v>577</v>
+        <v>183</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>659</v>
+        <v>443</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E190" t="s">
-        <v>208</v>
+        <v>431</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B191" t="s">
-        <v>578</v>
+        <v>184</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>664</v>
+        <v>439</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E191" t="s">
-        <v>209</v>
+        <v>431</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B192" t="s">
-        <v>579</v>
+        <v>185</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>667</v>
+        <v>442</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E192" t="s">
-        <v>208</v>
+        <v>431</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B193" t="s">
-        <v>580</v>
+        <v>8</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>672</v>
+        <v>223</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E193" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>704</v>
+        <v>261</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>261</v>
+        <v>701</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -6031,7 +6025,7 @@
         <v>42</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>299</v>
@@ -6048,7 +6042,7 @@
         <v>48</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>232</v>
@@ -6082,7 +6076,7 @@
         <v>57</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>234</v>
@@ -6099,7 +6093,7 @@
         <v>313</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>314</v>
@@ -6116,7 +6110,7 @@
         <v>67</v>
       </c>
       <c r="B204" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>318</v>
@@ -6133,7 +6127,7 @@
         <v>68</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>319</v>
@@ -6150,7 +6144,7 @@
         <v>69</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>320</v>
@@ -6167,7 +6161,7 @@
         <v>72</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>235</v>
@@ -6184,7 +6178,7 @@
         <v>73</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>236</v>
@@ -6201,7 +6195,7 @@
         <v>74</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>237</v>
@@ -6218,7 +6212,7 @@
         <v>75</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>238</v>
@@ -6235,7 +6229,7 @@
         <v>80</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>326</v>
@@ -6252,7 +6246,7 @@
         <v>81</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C212" t="s">
         <v>325</v>
@@ -6269,7 +6263,7 @@
         <v>85</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>239</v>
@@ -6286,7 +6280,7 @@
         <v>103</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>240</v>
@@ -6303,7 +6297,7 @@
         <v>105</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>241</v>
@@ -6320,7 +6314,7 @@
         <v>117</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>475</v>
@@ -6368,47 +6362,47 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>157</v>
+        <v>727</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>675</v>
+        <v>249</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>229</v>
@@ -6419,13 +6413,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>229</v>
@@ -6436,64 +6430,64 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>251</v>
+        <v>661</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>502</v>
+        <v>703</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>229</v>
@@ -6504,19 +6498,19 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>726</v>
+        <v>503</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>230</v>
+        <v>505</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -6708,47 +6702,47 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>729</v>
+        <v>153</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>730</v>
+        <v>518</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>246</v>
+        <v>519</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>518</v>
+        <v>255</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>519</v>
+        <v>247</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>229</v>
@@ -6759,13 +6753,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>229</v>
@@ -6776,30 +6770,30 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>253</v>
+        <v>500</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>229</v>
@@ -6808,27 +6802,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E229" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E245">
-      <sortCondition ref="B1:B245"/>
+  <autoFilter ref="A1:E228" xr:uid="{4E21AB30-E0B0-204C-B983-626BAF7C0F4E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E244">
+      <sortCondition ref="B1:B244"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
